--- a/Results.xlsx
+++ b/Results.xlsx
@@ -489,30 +489,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>458</v>
+        <v>41</v>
       </c>
       <c r="G2" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="H2" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I2" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -528,11 +528,11 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -546,11 +546,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Real-Time Scheduling Theory</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -564,11 +564,11 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MLOps Engineering</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -582,11 +582,11 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MLOps Engineering</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -600,11 +600,11 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Real-Time Scheduling Theory</t>
+          <t>Front-end Web Development</t>
         </is>
       </c>
     </row>
@@ -618,11 +618,11 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Introduction to Electronic and Logic Circuits</t>
         </is>
       </c>
     </row>
@@ -636,11 +636,11 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Advanced Programming in C/C++ (Russian only)</t>
+          <t>Lambda-Calculus, Algebra, Machinery and Logic for Formal Program Semantics</t>
         </is>
       </c>
     </row>
@@ -654,11 +654,11 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Advanced Programming in C/C++ (Russian only)</t>
+          <t>MLOps Engineering</t>
         </is>
       </c>
     </row>
@@ -672,11 +672,11 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Advanced Programming in C/C++ (Russian only)</t>
+          <t>Lambda-Calculus, Algebra, Machinery and Logic for Formal Program Semantics</t>
         </is>
       </c>
     </row>
@@ -690,11 +690,11 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Introduction to Mechanical Engineering</t>
+          <t>Front-end Web Development</t>
         </is>
       </c>
     </row>
@@ -708,11 +708,11 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Real-Time Scheduling Theory</t>
+          <t>Cross-platform Mobile Development with Flutter</t>
         </is>
       </c>
     </row>
@@ -726,11 +726,11 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Advanced Programming in C/C++ (Russian only)</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -744,11 +744,11 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Deep Learning for Search</t>
         </is>
       </c>
     </row>
@@ -762,11 +762,11 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Advanced Programming in C/C++ (Russian only)</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -780,11 +780,11 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>MLOps Engineering</t>
         </is>
       </c>
     </row>
@@ -816,11 +816,11 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
+          <t>Introduction to Neuroscience</t>
         </is>
       </c>
     </row>
@@ -834,11 +834,11 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Advanced Programming in C/C++ (Russian only)</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -852,11 +852,11 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Introduction to Mechanical Engineering</t>
         </is>
       </c>
     </row>
@@ -870,11 +870,11 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
+          <t>Introduction to Neuroscience</t>
         </is>
       </c>
     </row>
@@ -888,11 +888,11 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Advanced Programming in C/C++ (Russian only)</t>
+          <t>Front-end Web Development</t>
         </is>
       </c>
     </row>
@@ -906,11 +906,11 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Deep Learning for Search</t>
         </is>
       </c>
     </row>
@@ -924,11 +924,11 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Advanced Programming in C/C++ (Russian only)</t>
+          <t>Lambda-Calculus, Algebra, Machinery and Logic for Formal Program Semantics</t>
         </is>
       </c>
     </row>
@@ -942,11 +942,11 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
+          <t>Introduction to Electronic and Logic Circuits</t>
         </is>
       </c>
     </row>
@@ -960,11 +960,11 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Advanced Programming in C/C++ (Russian only)</t>
+          <t>Introduction to Mechanical Engineering</t>
         </is>
       </c>
     </row>
@@ -978,11 +978,11 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Introduction to Mechanical Engineering</t>
+          <t>Introduction to Electronic and Logic Circuits</t>
         </is>
       </c>
     </row>
@@ -996,11 +996,11 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Advanced Programming in C/C++ (Russian only)</t>
+          <t>Introduction to 3D Modeling</t>
         </is>
       </c>
     </row>
@@ -1014,11 +1014,11 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -1032,11 +1032,11 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Lambda-Calculus, Algebra, Machinery and Logic for Formal Program Semantics</t>
         </is>
       </c>
     </row>
@@ -1050,11 +1050,11 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>MLOps Engineering</t>
+          <t>Architecture of Computing Devices</t>
         </is>
       </c>
     </row>
@@ -1068,11 +1068,11 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>MLOps Engineering</t>
+          <t>Lambda-Calculus, Algebra, Machinery and Logic for Formal Program Semantics</t>
         </is>
       </c>
     </row>
@@ -1086,11 +1086,11 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -1104,11 +1104,11 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>MLOps Engineering</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -1122,11 +1122,11 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -1140,11 +1140,11 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>MLOps Engineering</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -1158,11 +1158,11 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>MLOps Engineering</t>
+          <t>Introduction to Mechanical Engineering</t>
         </is>
       </c>
     </row>
@@ -1176,11 +1176,11 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Deep Learning for Search</t>
+          <t>MLOps Engineering</t>
         </is>
       </c>
     </row>
@@ -1194,11 +1194,11 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Deep Learning for Search</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -1212,11 +1212,11 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Real-Time Scheduling Theory</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -1230,11 +1230,11 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Real-Time Scheduling Theory</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -1248,11 +1248,11 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>MLOps Engineering</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -1266,11 +1266,11 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Introduction to Neuroscience</t>
         </is>
       </c>
     </row>
@@ -1302,11 +1302,11 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Architecture of Computing Devices</t>
+          <t>MLOps Engineering</t>
         </is>
       </c>
     </row>
@@ -1320,11 +1320,11 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>MLOps Engineering</t>
         </is>
       </c>
     </row>
@@ -1338,11 +1338,11 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -1356,11 +1356,11 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Cross-platform Mobile Development with Flutter</t>
+          <t>MLOps Engineering</t>
         </is>
       </c>
     </row>
@@ -1392,11 +1392,11 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Introduction to Electronic and Logic Circuits</t>
         </is>
       </c>
     </row>
@@ -1410,11 +1410,11 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Introduction to Mechanical Engineering</t>
+          <t>Branding &amp; Marketing in IT industry</t>
         </is>
       </c>
     </row>
@@ -1428,11 +1428,11 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Branding &amp; Marketing in IT industry</t>
         </is>
       </c>
     </row>
@@ -1446,11 +1446,11 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Introduction to Mechanical Engineering</t>
         </is>
       </c>
     </row>
@@ -1464,11 +1464,11 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Cross-platform Mobile Development with Flutter</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -1482,11 +1482,11 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Cross-platform Mobile Development with Flutter</t>
         </is>
       </c>
     </row>
@@ -1500,11 +1500,11 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Cross-platform Mobile Development with Flutter</t>
+          <t>Real-Time Scheduling Theory</t>
         </is>
       </c>
     </row>
@@ -1518,11 +1518,11 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Branding &amp; Marketing in IT industry</t>
         </is>
       </c>
     </row>
@@ -1536,11 +1536,11 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Introduction to Neuroscience</t>
         </is>
       </c>
     </row>
@@ -1554,11 +1554,11 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Real-Time Scheduling Theory</t>
+          <t>Advanced Programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -1572,11 +1572,11 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Introduction to Neuroscience</t>
         </is>
       </c>
     </row>
@@ -1590,11 +1590,11 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Cross-platform Mobile Development with Flutter</t>
+          <t>Introduction to 3D Modeling</t>
         </is>
       </c>
     </row>
@@ -1608,11 +1608,11 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Advanced Programming in C/C++ (Russian only)</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -1626,11 +1626,11 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Introduction to Neuroscience</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -1644,11 +1644,11 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Deep Learning for Search</t>
+          <t>Introduction to Prototyping</t>
         </is>
       </c>
     </row>
@@ -1662,11 +1662,11 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Deep Learning for Search</t>
+          <t>Advanced Programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -1680,11 +1680,11 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Lambda-Calculus, Algebra, Machinery and Logic for Formal Program Semantics</t>
         </is>
       </c>
     </row>
@@ -1698,11 +1698,11 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Real-Time Scheduling Theory</t>
+          <t>Branding &amp; Marketing in IT industry</t>
         </is>
       </c>
     </row>
@@ -1716,11 +1716,11 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Architecture of Computing Devices</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -1734,11 +1734,11 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Architecture of Computing Devices</t>
         </is>
       </c>
     </row>
@@ -1752,11 +1752,11 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -1770,11 +1770,11 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>MLOps Engineering</t>
+          <t>Introduction to 3D Modeling</t>
         </is>
       </c>
     </row>
@@ -1788,11 +1788,11 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Real-Time Scheduling Theory</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -1806,11 +1806,11 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -1824,11 +1824,11 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Architecture of Computing Devices</t>
+          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
         </is>
       </c>
     </row>
@@ -1842,11 +1842,11 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Deep Learning for Search</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -1860,11 +1860,11 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>MLOps Engineering</t>
+          <t>Introduction to 3D Modeling</t>
         </is>
       </c>
     </row>
@@ -1878,11 +1878,11 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Deep Learning for Search</t>
         </is>
       </c>
     </row>
@@ -1896,11 +1896,11 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Deep Learning for Search</t>
+          <t>Advanced Programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -1914,11 +1914,11 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>MLOps Engineering</t>
+          <t>Introduction to 3D Modeling</t>
         </is>
       </c>
     </row>
@@ -1932,11 +1932,11 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Deep Learning for Search</t>
+          <t>Front-end Web Development</t>
         </is>
       </c>
     </row>
@@ -1950,11 +1950,11 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>MLOps Engineering</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -1968,11 +1968,11 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Deep Learning for Search</t>
+          <t>MLOps Engineering</t>
         </is>
       </c>
     </row>
@@ -1986,11 +1986,11 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Lambda-Calculus, Algebra, Machinery and Logic for Formal Program Semantics</t>
         </is>
       </c>
     </row>
@@ -2004,11 +2004,11 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>MLOps Engineering</t>
+          <t>Introduction to Neuroscience</t>
         </is>
       </c>
     </row>
@@ -2018,17 +2018,13 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Student 45@innopolis.university</t>
+          <t>Student 756@innopolis.university</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Deep Learning for Search</t>
-        </is>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2040,11 +2036,11 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Introduction to 3D Modeling</t>
         </is>
       </c>
     </row>
@@ -2058,11 +2054,11 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>MLOps Engineering</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -2076,11 +2072,11 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Deep Learning for Search</t>
+          <t>Front-end Web Development</t>
         </is>
       </c>
     </row>
@@ -2094,11 +2090,11 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Introduction to Mechanical Engineering</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -2112,11 +2108,11 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Advanced Programming in C/C++ (Russian only)</t>
+          <t>Cross-platform Mobile Development with Flutter</t>
         </is>
       </c>
     </row>
@@ -2130,11 +2126,11 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Advanced Programming in C/C++ (Russian only)</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -2148,11 +2144,11 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Cross-platform Mobile Development with Flutter</t>
+          <t>Introduction to Neuroscience</t>
         </is>
       </c>
     </row>
@@ -2166,11 +2162,11 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Real-Time Scheduling Theory</t>
+          <t>Advanced Programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -2184,11 +2180,11 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Real-Time Scheduling Theory</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -2202,11 +2198,11 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Advanced Programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -2220,11 +2216,11 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Advanced Programming in C/C++ (Russian only)</t>
+          <t>Architecture of Computing Devices</t>
         </is>
       </c>
     </row>
@@ -2238,11 +2234,11 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -2256,11 +2252,11 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Advanced Programming in C/C++ (Russian only)</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -2274,11 +2270,11 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Cross-platform Mobile Development with Flutter</t>
+          <t>Advanced Programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -2292,11 +2288,11 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Architecture of Computing Devices</t>
+          <t>Cross-platform Mobile Development with Flutter</t>
         </is>
       </c>
     </row>
@@ -2310,11 +2306,11 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Advanced Programming in C/C++ (Russian only)</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -2328,11 +2324,11 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Cross-platform Mobile Development with Flutter</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -2346,11 +2342,11 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Cross-platform Mobile Development with Flutter</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -2364,11 +2360,11 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -2382,11 +2378,11 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -2400,11 +2396,11 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Cross-platform Mobile Development with Flutter</t>
+          <t>Introduction to Neuroscience</t>
         </is>
       </c>
     </row>
@@ -2418,11 +2414,11 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Introduction to Neuroscience</t>
         </is>
       </c>
     </row>
@@ -2436,11 +2432,11 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Advanced Programming in C/C++ (Russian only)</t>
+          <t>Introduction to Prototyping</t>
         </is>
       </c>
     </row>
@@ -2454,11 +2450,11 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Advanced Programming in C/C++ (Russian only)</t>
+          <t>Cross-platform Mobile Development with Flutter</t>
         </is>
       </c>
     </row>
@@ -2472,11 +2468,11 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -2490,11 +2486,11 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Advanced Programming in C/C++ (Russian only)</t>
+          <t>Real-Time Scheduling Theory</t>
         </is>
       </c>
     </row>
@@ -2508,11 +2504,11 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Real-Time Scheduling Theory</t>
         </is>
       </c>
     </row>
@@ -2526,11 +2522,11 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -2544,11 +2540,11 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Cross-platform Mobile Development with Flutter</t>
+          <t>Branding &amp; Marketing in IT industry</t>
         </is>
       </c>
     </row>
@@ -2562,11 +2558,11 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Lambda-Calculus, Algebra, Machinery and Logic for Formal Program Semantics</t>
+          <t>Branding &amp; Marketing in IT industry</t>
         </is>
       </c>
     </row>
@@ -2580,11 +2576,11 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Advanced Programming in C/C++ (Russian only)</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -2598,11 +2594,11 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Advanced Programming in C/C++ (Russian only)</t>
+          <t>Introduction to Neuroscience</t>
         </is>
       </c>
     </row>
@@ -2616,11 +2612,11 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Introduction to Electronic and Logic Circuits</t>
+          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
         </is>
       </c>
     </row>
@@ -2634,11 +2630,11 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>MLOps Engineering</t>
+          <t>Architecture of Computing Devices</t>
         </is>
       </c>
     </row>
@@ -2652,11 +2648,11 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Real-Time Scheduling Theory</t>
+          <t>Introduction to Neuroscience</t>
         </is>
       </c>
     </row>
@@ -2670,11 +2666,11 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Real-Time Scheduling Theory</t>
+          <t>Introduction to Neuroscience</t>
         </is>
       </c>
     </row>
@@ -2688,11 +2684,11 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>MLOps Engineering</t>
+          <t>Introduction to Electronic and Logic Circuits</t>
         </is>
       </c>
     </row>
@@ -2706,11 +2702,11 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Deep Learning for Search</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -2724,11 +2720,11 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -2742,11 +2738,11 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Real-Time Scheduling Theory</t>
+          <t>Cross-platform Mobile Development with Flutter</t>
         </is>
       </c>
     </row>
@@ -2760,11 +2756,11 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Deep Learning for Search</t>
+          <t>Branding &amp; Marketing in IT industry</t>
         </is>
       </c>
     </row>
@@ -2778,11 +2774,11 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Deep Learning for Search</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -2796,11 +2792,11 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
+          <t>Introduction to Neuroscience</t>
         </is>
       </c>
     </row>
@@ -2814,11 +2810,11 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -2832,11 +2828,11 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>MLOps Engineering</t>
+          <t>Lambda-Calculus, Algebra, Machinery and Logic for Formal Program Semantics</t>
         </is>
       </c>
     </row>
@@ -2850,11 +2846,11 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Introduction to Prototyping</t>
+          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
         </is>
       </c>
     </row>
@@ -2868,11 +2864,11 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Lambda-Calculus, Algebra, Machinery and Logic for Formal Program Semantics</t>
         </is>
       </c>
     </row>
@@ -2886,11 +2882,11 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Lambda-Calculus, Algebra, Machinery and Logic for Formal Program Semantics</t>
         </is>
       </c>
     </row>
@@ -2904,11 +2900,11 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Deep Learning for Search</t>
+          <t>Cross-platform Mobile Development with Flutter</t>
         </is>
       </c>
     </row>
@@ -2922,11 +2918,11 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Real-Time Scheduling Theory</t>
+          <t>Lambda-Calculus, Algebra, Machinery and Logic for Formal Program Semantics</t>
         </is>
       </c>
     </row>
@@ -2940,11 +2936,11 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -2958,11 +2954,11 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Introduction to Mechanical Engineering</t>
         </is>
       </c>
     </row>
@@ -2976,11 +2972,11 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Introduction to Neuroscience</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -2994,11 +2990,11 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Introduction to 3D Modeling</t>
         </is>
       </c>
     </row>
@@ -3012,11 +3008,11 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Cross-platform Mobile Development with Flutter</t>
+          <t>MLOps Engineering</t>
         </is>
       </c>
     </row>
@@ -3030,11 +3026,11 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -3048,11 +3044,11 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Advanced Programming in C/C++ (Russian only)</t>
+          <t>MLOps Engineering</t>
         </is>
       </c>
     </row>
@@ -3066,11 +3062,11 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -3102,11 +3098,11 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Advanced Programming in C/C++ (Russian only)</t>
+          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
         </is>
       </c>
     </row>
@@ -3156,11 +3152,11 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Introduction to 3D Modeling</t>
         </is>
       </c>
     </row>
@@ -3174,11 +3170,11 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Cross-platform Mobile Development with Flutter</t>
+          <t>Front-end Web Development</t>
         </is>
       </c>
     </row>
@@ -3192,11 +3188,11 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Advanced Programming in C/C++ (Russian only)</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -3210,11 +3206,11 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Branding &amp; Marketing in IT industry</t>
         </is>
       </c>
     </row>
@@ -3228,11 +3224,11 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Advanced Programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -3246,11 +3242,11 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Advanced Programming in C/C++ (Russian only)</t>
+          <t>Front-end Web Development</t>
         </is>
       </c>
     </row>
@@ -3264,11 +3260,11 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
         </is>
       </c>
     </row>
@@ -3282,11 +3278,11 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -3300,11 +3296,11 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Real-Time Scheduling Theory</t>
+          <t>Front-end Web Development</t>
         </is>
       </c>
     </row>
@@ -3318,11 +3314,11 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Advanced Programming in C/C++ (Russian only)</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -3354,11 +3350,11 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Real-Time Scheduling Theory</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -3372,11 +3368,11 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Architecture of Computing Devices</t>
+          <t>Introduction to Neuroscience</t>
         </is>
       </c>
     </row>
@@ -3390,11 +3386,11 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Cross-platform Mobile Development with Flutter</t>
+          <t>Introduction to Electronic and Logic Circuits</t>
         </is>
       </c>
     </row>
@@ -3408,11 +3404,11 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Introduction to Electronic and Logic Circuits</t>
         </is>
       </c>
     </row>
@@ -3426,11 +3422,11 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Introduction to Neuroscience</t>
         </is>
       </c>
     </row>
@@ -3444,11 +3440,11 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Cross-platform Mobile Development with Flutter</t>
+          <t>Introduction to Mechanical Engineering</t>
         </is>
       </c>
     </row>
@@ -3462,11 +3458,11 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Cross-platform Mobile Development with Flutter</t>
+          <t>Branding &amp; Marketing in IT industry</t>
         </is>
       </c>
     </row>
@@ -3480,11 +3476,11 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Deep Learning for Search</t>
+          <t>Front-end Web Development</t>
         </is>
       </c>
     </row>
@@ -3498,11 +3494,11 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>MLOps Engineering</t>
         </is>
       </c>
     </row>
@@ -3516,11 +3512,11 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Introduction to Neuroscience</t>
         </is>
       </c>
     </row>
@@ -3534,11 +3530,11 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -3552,11 +3548,11 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -3570,11 +3566,11 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -3588,11 +3584,11 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -3606,11 +3602,11 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Architecture of Computing Devices</t>
+          <t>Advanced Programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -3624,11 +3620,11 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Introduction to Neuroscience</t>
+          <t>MLOps Engineering</t>
         </is>
       </c>
     </row>
@@ -3642,11 +3638,11 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Deep Learning for Search</t>
         </is>
       </c>
     </row>
@@ -3660,11 +3656,11 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -3678,11 +3674,11 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Branding &amp; Marketing in IT industry</t>
         </is>
       </c>
     </row>
@@ -3696,11 +3692,11 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -3714,11 +3710,11 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -3732,11 +3728,11 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Deep Learning for Search</t>
+          <t>Lambda-Calculus, Algebra, Machinery and Logic for Formal Program Semantics</t>
         </is>
       </c>
     </row>
@@ -3750,11 +3746,11 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Real-Time Scheduling Theory</t>
+          <t>Front-end Web Development</t>
         </is>
       </c>
     </row>
@@ -3768,11 +3764,11 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Introduction to Mechanical Engineering</t>
         </is>
       </c>
     </row>
@@ -3786,11 +3782,11 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Real-Time Scheduling Theory</t>
+          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
         </is>
       </c>
     </row>
@@ -3804,11 +3800,11 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Architecture of Computing Devices</t>
         </is>
       </c>
     </row>
@@ -3822,11 +3818,11 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>MLOps Engineering</t>
+          <t>Front-end Web Development</t>
         </is>
       </c>
     </row>
@@ -3840,11 +3836,11 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
+          <t>Introduction to Mechanical Engineering</t>
         </is>
       </c>
     </row>
@@ -3858,11 +3854,11 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Deep Learning for Search</t>
+          <t>Lambda-Calculus, Algebra, Machinery and Logic for Formal Program Semantics</t>
         </is>
       </c>
     </row>
@@ -3876,11 +3872,11 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Introduction to Neuroscience</t>
+          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
         </is>
       </c>
     </row>
@@ -3894,11 +3890,11 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Introduction to Neuroscience</t>
+          <t>Branding &amp; Marketing in IT industry</t>
         </is>
       </c>
     </row>
@@ -3912,11 +3908,11 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Real-Time Scheduling Theory</t>
         </is>
       </c>
     </row>
@@ -3930,11 +3926,11 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Cross-platform Mobile Development with Flutter</t>
         </is>
       </c>
     </row>
@@ -3948,11 +3944,11 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>MLOps Engineering</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -3966,11 +3962,11 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>MLOps Engineering</t>
+          <t>Real-Time Scheduling Theory</t>
         </is>
       </c>
     </row>
@@ -3984,11 +3980,11 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Deep Learning for Search</t>
         </is>
       </c>
     </row>
@@ -4002,11 +3998,11 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Branding &amp; Marketing in IT industry</t>
         </is>
       </c>
     </row>
@@ -4020,11 +4016,11 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Cross-platform Mobile Development with Flutter</t>
+          <t>Lambda-Calculus, Algebra, Machinery and Logic for Formal Program Semantics</t>
         </is>
       </c>
     </row>
@@ -4038,11 +4034,11 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
         </is>
       </c>
     </row>
@@ -4056,11 +4052,11 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Introduction to Prototyping</t>
         </is>
       </c>
     </row>
@@ -4074,11 +4070,11 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Advanced Programming in C/C++ (Russian only)</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -4092,11 +4088,11 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Advanced Programming in C/C++ (Russian only)</t>
+          <t>Architecture of Computing Devices</t>
         </is>
       </c>
     </row>
@@ -4110,11 +4106,11 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Real-Time Scheduling Theory</t>
+          <t>Introduction to Prototyping</t>
         </is>
       </c>
     </row>
@@ -4146,11 +4142,11 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Advanced Programming in C/C++ (Russian only)</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -4164,11 +4160,11 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Architecture of Computing Devices</t>
+          <t>Introduction to Electronic and Logic Circuits</t>
         </is>
       </c>
     </row>
@@ -4182,11 +4178,11 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Real-Time Scheduling Theory</t>
+          <t>Architecture of Computing Devices</t>
         </is>
       </c>
     </row>
@@ -4218,11 +4214,11 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Real-Time Scheduling Theory</t>
+          <t>Deep Learning for Search</t>
         </is>
       </c>
     </row>
@@ -4236,11 +4232,11 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Real-Time Scheduling Theory</t>
+          <t>Advanced Programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -4254,11 +4250,11 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Cross-platform Mobile Development with Flutter</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -4272,11 +4268,11 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Cross-platform Mobile Development with Flutter</t>
+          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
         </is>
       </c>
     </row>
@@ -4290,11 +4286,11 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -4308,11 +4304,11 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
+          <t>Front-end Web Development</t>
         </is>
       </c>
     </row>
@@ -4326,11 +4322,11 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Lambda-Calculus, Algebra, Machinery and Logic for Formal Program Semantics</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -4344,11 +4340,11 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Cross-platform Mobile Development with Flutter</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -4362,11 +4358,11 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Introduction to Neuroscience</t>
         </is>
       </c>
     </row>
@@ -4398,11 +4394,11 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Cross-platform Mobile Development with Flutter</t>
+          <t>Introduction to Prototyping</t>
         </is>
       </c>
     </row>
@@ -4416,11 +4412,11 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Cross-platform Mobile Development with Flutter</t>
+          <t>Lambda-Calculus, Algebra, Machinery and Logic for Formal Program Semantics</t>
         </is>
       </c>
     </row>
@@ -4434,11 +4430,11 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Advanced Programming in C/C++ (Russian only)</t>
+          <t>Front-end Web Development</t>
         </is>
       </c>
     </row>
@@ -4452,11 +4448,11 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Architecture of Computing Devices</t>
         </is>
       </c>
     </row>
@@ -4470,11 +4466,11 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Lambda-Calculus, Algebra, Machinery and Logic for Formal Program Semantics</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -4506,11 +4502,11 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Real-Time Scheduling Theory</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -4524,11 +4520,11 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Advanced Programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -4542,11 +4538,11 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Cross-platform Mobile Development with Flutter</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -4560,11 +4556,11 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Real-Time Scheduling Theory</t>
+          <t>Introduction to 3D Modeling</t>
         </is>
       </c>
     </row>
@@ -4578,11 +4574,11 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Architecture of Computing Devices</t>
         </is>
       </c>
     </row>
@@ -4596,11 +4592,11 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -4614,11 +4610,11 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>MLOps Engineering</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -4632,11 +4628,11 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Introduction to Prototyping</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -4650,11 +4646,11 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Introduction to Prototyping</t>
+          <t>Introduction to Neuroscience</t>
         </is>
       </c>
     </row>
@@ -4668,11 +4664,11 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -4686,11 +4682,11 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -4704,11 +4700,11 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Deep Learning for Search</t>
+          <t>Advanced Programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -4722,11 +4718,11 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Deep Learning for Search</t>
+          <t>Introduction to Mechanical Engineering</t>
         </is>
       </c>
     </row>
@@ -4740,11 +4736,11 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Cross-platform Mobile Development with Flutter</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -4758,11 +4754,11 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>MLOps Engineering</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -4776,11 +4772,11 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>MLOps Engineering</t>
         </is>
       </c>
     </row>
@@ -4794,11 +4790,11 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -4812,11 +4808,11 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Real-Time Scheduling Theory</t>
+          <t>Introduction to Prototyping</t>
         </is>
       </c>
     </row>
@@ -4830,11 +4826,11 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -4848,11 +4844,11 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -4866,11 +4862,11 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Deep Learning for Search</t>
+          <t>Introduction to Electronic and Logic Circuits</t>
         </is>
       </c>
     </row>
@@ -4902,11 +4898,11 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -4920,11 +4916,11 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Deep Learning for Search</t>
+          <t>Branding &amp; Marketing in IT industry</t>
         </is>
       </c>
     </row>
@@ -4938,11 +4934,11 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>MLOps Engineering</t>
+          <t>Introduction to Neuroscience</t>
         </is>
       </c>
     </row>
@@ -4956,11 +4952,11 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Introduction to Neuroscience</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -4974,11 +4970,11 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Introduction to Neuroscience</t>
+          <t>Introduction to 3D Modeling</t>
         </is>
       </c>
     </row>
@@ -4992,11 +4988,11 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>MLOps Engineering</t>
+          <t>Cross-platform Mobile Development with Flutter</t>
         </is>
       </c>
     </row>
@@ -5010,11 +5006,11 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Front-end Web Development</t>
         </is>
       </c>
     </row>
@@ -5028,11 +5024,11 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -5046,11 +5042,11 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -5064,11 +5060,11 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Real-Time Scheduling Theory</t>
         </is>
       </c>
     </row>
@@ -5082,11 +5078,11 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Architecture of Computing Devices</t>
         </is>
       </c>
     </row>
@@ -5100,11 +5096,11 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>MLOps Engineering</t>
+          <t>Introduction to Prototyping</t>
         </is>
       </c>
     </row>
@@ -5118,11 +5114,11 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Introduction to Mechanical Engineering</t>
         </is>
       </c>
     </row>
@@ -5136,11 +5132,11 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Real-Time Scheduling Theory</t>
         </is>
       </c>
     </row>
@@ -5154,11 +5150,11 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Introduction to Neuroscience</t>
+          <t>Introduction to 3D Modeling</t>
         </is>
       </c>
     </row>
@@ -5172,11 +5168,11 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
         </is>
       </c>
     </row>
@@ -5190,11 +5186,11 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -5208,11 +5204,11 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
+          <t>Cross-platform Mobile Development with Flutter</t>
         </is>
       </c>
     </row>
@@ -5226,11 +5222,11 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Cross-platform Mobile Development with Flutter</t>
+          <t>Real-Time Scheduling Theory</t>
         </is>
       </c>
     </row>
@@ -5244,11 +5240,11 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Deep Learning for Search</t>
         </is>
       </c>
     </row>
@@ -5280,11 +5276,11 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Introduction to Electronic and Logic Circuits</t>
         </is>
       </c>
     </row>
@@ -5298,11 +5294,11 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -5334,11 +5330,11 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Advanced Programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -5352,11 +5348,11 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>MLOps Engineering</t>
         </is>
       </c>
     </row>
@@ -5370,11 +5366,11 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Introduction to Mechanical Engineering</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -5388,11 +5384,11 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Lambda-Calculus, Algebra, Machinery and Logic for Formal Program Semantics</t>
         </is>
       </c>
     </row>
@@ -5406,11 +5402,11 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -5424,11 +5420,11 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Cross-platform Mobile Development with Flutter</t>
+          <t>Advanced Programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -5442,11 +5438,11 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Cross-platform Mobile Development with Flutter</t>
         </is>
       </c>
     </row>
@@ -5460,11 +5456,11 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Advanced Programming in C/C++ (Russian only)</t>
+          <t>Introduction to Mechanical Engineering</t>
         </is>
       </c>
     </row>
@@ -5478,11 +5474,11 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -5496,11 +5492,11 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Branding &amp; Marketing in IT industry</t>
         </is>
       </c>
     </row>
@@ -5514,11 +5510,11 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Cross-platform Mobile Development with Flutter</t>
         </is>
       </c>
     </row>
@@ -5532,11 +5528,11 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Introduction to Mechanical Engineering</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -5550,11 +5546,11 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Introduction to Mechanical Engineering</t>
         </is>
       </c>
     </row>
@@ -5568,11 +5564,11 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
         </is>
       </c>
     </row>
@@ -5586,11 +5582,11 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -5604,11 +5600,11 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Cross-platform Mobile Development with Flutter</t>
+          <t>Branding &amp; Marketing in IT industry</t>
         </is>
       </c>
     </row>
@@ -5622,11 +5618,11 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Introduction to Mechanical Engineering</t>
+          <t>Front-end Web Development</t>
         </is>
       </c>
     </row>
@@ -5640,11 +5636,11 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Advanced Programming in C/C++ (Russian only)</t>
+          <t>Architecture of Computing Devices</t>
         </is>
       </c>
     </row>
@@ -5658,11 +5654,11 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -5676,11 +5672,11 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Architecture of Computing Devices</t>
         </is>
       </c>
     </row>
@@ -5712,11 +5708,11 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -5730,11 +5726,11 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -5748,11 +5744,11 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Lambda-Calculus, Algebra, Machinery and Logic for Formal Program Semantics</t>
         </is>
       </c>
     </row>
@@ -5766,11 +5762,11 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Advanced Programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -5784,11 +5780,11 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Introduction to Mechanical Engineering</t>
         </is>
       </c>
     </row>
@@ -5802,11 +5798,11 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Front-end Web Development</t>
         </is>
       </c>
     </row>
@@ -5820,11 +5816,11 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Architecture of Computing Devices</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -5838,11 +5834,11 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -5856,11 +5852,11 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Front-end Web Development</t>
         </is>
       </c>
     </row>
@@ -5874,11 +5870,11 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Introduction to Neuroscience</t>
+          <t>Front-end Web Development</t>
         </is>
       </c>
     </row>
@@ -5892,11 +5888,11 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
+          <t>Deep Learning for Search</t>
         </is>
       </c>
     </row>
@@ -5910,11 +5906,11 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Introduction to Neuroscience</t>
+          <t>Introduction to Electronic and Logic Circuits</t>
         </is>
       </c>
     </row>
@@ -5928,11 +5924,11 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -5946,11 +5942,11 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Front-end Web Development</t>
         </is>
       </c>
     </row>
@@ -5964,11 +5960,11 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Introduction to Neuroscience</t>
         </is>
       </c>
     </row>
@@ -5982,11 +5978,11 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Real-Time Scheduling Theory</t>
         </is>
       </c>
     </row>
@@ -6000,11 +5996,11 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Cross-platform Mobile Development with Flutter</t>
         </is>
       </c>
     </row>
@@ -6018,11 +6014,11 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Introduction to Neuroscience</t>
         </is>
       </c>
     </row>
@@ -6036,11 +6032,11 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>MLOps Engineering</t>
+          <t>Introduction to 3D Modeling</t>
         </is>
       </c>
     </row>
@@ -6054,11 +6050,11 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Deep Learning for Search</t>
+          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
         </is>
       </c>
     </row>
@@ -6072,11 +6068,11 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -6090,11 +6086,11 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -6108,11 +6104,11 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Introduction to Neuroscience</t>
+          <t>Branding &amp; Marketing in IT industry</t>
         </is>
       </c>
     </row>
@@ -6144,11 +6140,11 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Introduction to Neuroscience</t>
         </is>
       </c>
     </row>
@@ -6162,11 +6158,11 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Advanced Programming in C/C++ (Russian only)</t>
+          <t>Introduction to Neuroscience</t>
         </is>
       </c>
     </row>
@@ -6180,11 +6176,11 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Architecture of Computing Devices</t>
         </is>
       </c>
     </row>
@@ -6198,11 +6194,11 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Introduction to Mechanical Engineering</t>
         </is>
       </c>
     </row>
@@ -6216,11 +6212,11 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Introduction to Prototyping</t>
+          <t>Introduction to Neuroscience</t>
         </is>
       </c>
     </row>
@@ -6234,11 +6230,11 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Deep Learning for Search</t>
+          <t>Introduction to Neuroscience</t>
         </is>
       </c>
     </row>
@@ -6252,11 +6248,11 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Introduction to Prototyping</t>
         </is>
       </c>
     </row>
@@ -6270,11 +6266,11 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>MLOps Engineering</t>
+          <t>Deep Learning for Search</t>
         </is>
       </c>
     </row>
@@ -6288,11 +6284,11 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Cross-platform Mobile Development with Flutter</t>
+          <t>Real-Time Scheduling Theory</t>
         </is>
       </c>
     </row>
@@ -6306,11 +6302,11 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Introduction to Mechanical Engineering</t>
         </is>
       </c>
     </row>
@@ -6324,11 +6320,11 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Introduction to Prototyping</t>
         </is>
       </c>
     </row>
@@ -6342,11 +6338,11 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Advanced Programming in C/C++ (Russian only)</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -6360,11 +6356,11 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Advanced Programming in C/C++ (Russian only)</t>
+          <t>Introduction to 3D Modeling</t>
         </is>
       </c>
     </row>
@@ -6378,11 +6374,11 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Cross-platform Mobile Development with Flutter</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -6396,11 +6392,11 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Advanced Programming in C/C++ (Russian only)</t>
+          <t>Introduction to 3D Modeling</t>
         </is>
       </c>
     </row>
@@ -6432,11 +6428,11 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Introduction to Mechanical Engineering</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -6450,11 +6446,11 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Cross-platform Mobile Development with Flutter</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -6468,11 +6464,11 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Cross-platform Mobile Development with Flutter</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -6486,11 +6482,11 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Cross-platform Mobile Development with Flutter</t>
         </is>
       </c>
     </row>
@@ -6504,11 +6500,11 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Architecture of Computing Devices</t>
+          <t>Real-Time Scheduling Theory</t>
         </is>
       </c>
     </row>
@@ -6522,11 +6518,11 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Cross-platform Mobile Development with Flutter</t>
+          <t>Introduction to 3D Modeling</t>
         </is>
       </c>
     </row>
@@ -6540,11 +6536,11 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Introduction to Neuroscience</t>
         </is>
       </c>
     </row>
@@ -6558,11 +6554,11 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Lambda-Calculus, Algebra, Machinery and Logic for Formal Program Semantics</t>
+          <t>MLOps Engineering</t>
         </is>
       </c>
     </row>
@@ -6576,11 +6572,11 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Introduction to Mechanical Engineering</t>
+          <t>Advanced Programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -6594,11 +6590,11 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Cross-platform Mobile Development with Flutter</t>
+          <t>Front-end Web Development</t>
         </is>
       </c>
     </row>
@@ -6612,11 +6608,11 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Cross-platform Mobile Development with Flutter</t>
+          <t>Architecture of Computing Devices</t>
         </is>
       </c>
     </row>
@@ -6630,11 +6626,11 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Real-Time Scheduling Theory</t>
         </is>
       </c>
     </row>
@@ -6666,11 +6662,11 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -6684,11 +6680,11 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Cross-platform Mobile Development with Flutter</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -6702,11 +6698,11 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Deep Learning for Search</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -6720,11 +6716,11 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Advanced Programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -6738,11 +6734,11 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Architecture of Computing Devices</t>
         </is>
       </c>
     </row>
@@ -6756,11 +6752,11 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Advanced Programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -6774,11 +6770,11 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>MLOps Engineering</t>
         </is>
       </c>
     </row>
@@ -6828,11 +6824,11 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>MLOps Engineering</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -6846,11 +6842,11 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -6864,11 +6860,11 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -6900,11 +6896,11 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Architecture of Computing Devices</t>
+          <t>Introduction to Prototyping</t>
         </is>
       </c>
     </row>
@@ -6918,11 +6914,11 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Deep Learning for Search</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -6936,11 +6932,11 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Introduction to Neuroscience</t>
+          <t>Lambda-Calculus, Algebra, Machinery and Logic for Formal Program Semantics</t>
         </is>
       </c>
     </row>
@@ -6954,11 +6950,11 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Branding &amp; Marketing in IT industry</t>
         </is>
       </c>
     </row>
@@ -6972,11 +6968,11 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Introduction to 3D Modeling</t>
         </is>
       </c>
     </row>
@@ -6990,11 +6986,11 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Introduction to 3D Modeling</t>
         </is>
       </c>
     </row>
@@ -7008,11 +7004,11 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -7026,11 +7022,11 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Front-end Web Development</t>
         </is>
       </c>
     </row>
@@ -7062,11 +7058,11 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Architecture of Computing Devices</t>
         </is>
       </c>
     </row>
@@ -7080,11 +7076,11 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>MLOps Engineering</t>
         </is>
       </c>
     </row>
@@ -7098,11 +7094,11 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>Cross-platform Mobile Development with Flutter</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -7116,11 +7112,11 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>Cross-platform Mobile Development with Flutter</t>
+          <t>Advanced Programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -7134,11 +7130,11 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -7152,11 +7148,11 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Cross-platform Mobile Development with Flutter</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -7170,11 +7166,11 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>Cross-platform Mobile Development with Flutter</t>
+          <t>Front-end Web Development</t>
         </is>
       </c>
     </row>
@@ -7206,11 +7202,11 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>Lambda-Calculus, Algebra, Machinery and Logic for Formal Program Semantics</t>
+          <t>Advanced Programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -7224,11 +7220,11 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Architecture of Computing Devices</t>
         </is>
       </c>
     </row>
@@ -7242,11 +7238,11 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -7260,11 +7256,11 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Cross-platform Mobile Development with Flutter</t>
         </is>
       </c>
     </row>
@@ -7278,11 +7274,11 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Real-Time Scheduling Theory</t>
         </is>
       </c>
     </row>
@@ -7296,11 +7292,11 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>Introduction to Mechanical Engineering</t>
+          <t>Architecture of Computing Devices</t>
         </is>
       </c>
     </row>
@@ -7314,11 +7310,11 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Cross-platform Mobile Development with Flutter</t>
         </is>
       </c>
     </row>
@@ -7332,11 +7328,11 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -7350,11 +7346,11 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Introduction to Mechanical Engineering</t>
         </is>
       </c>
     </row>
@@ -7368,11 +7364,11 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
         </is>
       </c>
     </row>
@@ -7386,11 +7382,11 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -7404,11 +7400,11 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Front-end Web Development</t>
         </is>
       </c>
     </row>
@@ -7422,11 +7418,11 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Introduction to Neuroscience</t>
+          <t>MLOps Engineering</t>
         </is>
       </c>
     </row>
@@ -7440,11 +7436,11 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -7458,11 +7454,11 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Introduction to Neuroscience</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -7476,11 +7472,11 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Deep Learning for Search</t>
+          <t>Introduction to Electronic and Logic Circuits</t>
         </is>
       </c>
     </row>
@@ -7494,11 +7490,11 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Front-end Web Development</t>
         </is>
       </c>
     </row>
@@ -7512,11 +7508,11 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -7530,11 +7526,11 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Architecture of Computing Devices</t>
+          <t>Introduction to 3D Modeling</t>
         </is>
       </c>
     </row>
@@ -7548,11 +7544,11 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Branding &amp; Marketing in IT industry</t>
         </is>
       </c>
     </row>
@@ -7566,11 +7562,11 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
+          <t>Introduction to Neuroscience</t>
         </is>
       </c>
     </row>
@@ -7584,11 +7580,11 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>MLOps Engineering</t>
+          <t>Introduction to Mechanical Engineering</t>
         </is>
       </c>
     </row>
@@ -7602,11 +7598,11 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
         </is>
       </c>
     </row>
@@ -7620,11 +7616,11 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -7656,11 +7652,11 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Advanced Programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -7674,11 +7670,11 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Real-Time Scheduling Theory</t>
         </is>
       </c>
     </row>
@@ -7692,11 +7688,11 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Cross-platform Mobile Development with Flutter</t>
         </is>
       </c>
     </row>
@@ -7710,11 +7706,11 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Architecture of Computing Devices</t>
         </is>
       </c>
     </row>
@@ -7728,11 +7724,11 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>MLOps Engineering</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -7746,11 +7742,11 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Architecture of Computing Devices</t>
         </is>
       </c>
     </row>
@@ -7764,11 +7760,11 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Real-Time Scheduling Theory</t>
         </is>
       </c>
     </row>
@@ -7782,11 +7778,11 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
         </is>
       </c>
     </row>
@@ -7800,11 +7796,11 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Introduction to Prototyping</t>
+          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
         </is>
       </c>
     </row>
@@ -7818,11 +7814,11 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -7854,11 +7850,11 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Cross-platform Mobile Development with Flutter</t>
         </is>
       </c>
     </row>
@@ -7872,11 +7868,11 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -7890,11 +7886,11 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Introduction to Mechanical Engineering</t>
+          <t>Introduction to Prototyping</t>
         </is>
       </c>
     </row>
@@ -7908,11 +7904,11 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Introduction to Electronic and Logic Circuits</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -7926,11 +7922,11 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Lambda-Calculus, Algebra, Machinery and Logic for Formal Program Semantics</t>
         </is>
       </c>
     </row>
@@ -7944,11 +7940,11 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Lambda-Calculus, Algebra, Machinery and Logic for Formal Program Semantics</t>
         </is>
       </c>
     </row>
@@ -7962,11 +7958,11 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>MLOps Engineering</t>
+          <t>Branding &amp; Marketing in IT industry</t>
         </is>
       </c>
     </row>
@@ -7980,11 +7976,11 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Cross-platform Mobile Development with Flutter</t>
         </is>
       </c>
     </row>
@@ -7998,11 +7994,11 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -8016,11 +8012,11 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Advanced Programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -8034,11 +8030,11 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -8052,11 +8048,11 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Introduction to Mechanical Engineering</t>
+          <t>Introduction to Neuroscience</t>
         </is>
       </c>
     </row>
@@ -8070,11 +8066,11 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Introduction to Neuroscience</t>
         </is>
       </c>
     </row>
@@ -8088,11 +8084,11 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>MLOps Engineering</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -8106,11 +8102,11 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Architecture of Computing Devices</t>
         </is>
       </c>
     </row>
@@ -8124,11 +8120,11 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>MLOps Engineering</t>
         </is>
       </c>
     </row>
@@ -8142,11 +8138,11 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -8160,11 +8156,11 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Front-end Web Development</t>
         </is>
       </c>
     </row>
@@ -8178,11 +8174,11 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Cross-platform Mobile Development with Flutter</t>
         </is>
       </c>
     </row>
@@ -8196,11 +8192,11 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>MLOps Engineering</t>
+          <t>Introduction to Prototyping</t>
         </is>
       </c>
     </row>
@@ -8232,11 +8228,11 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Front-end Web Development</t>
         </is>
       </c>
     </row>
@@ -8250,11 +8246,11 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Introduction to 3D Modeling</t>
         </is>
       </c>
     </row>
@@ -8268,11 +8264,11 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -8286,11 +8282,11 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Introduction to Mechanical Engineering</t>
         </is>
       </c>
     </row>
@@ -8304,11 +8300,11 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Branding &amp; Marketing in IT industry</t>
         </is>
       </c>
     </row>
@@ -8340,11 +8336,11 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Real-Time Scheduling Theory</t>
         </is>
       </c>
     </row>
@@ -8358,11 +8354,11 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Branding &amp; Marketing in IT industry</t>
+          <t>Real-Time Scheduling Theory</t>
         </is>
       </c>
     </row>
@@ -8376,11 +8372,11 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
+          <t>Introduction to Neuroscience</t>
         </is>
       </c>
     </row>
@@ -8394,11 +8390,11 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>Lambda-Calculus, Algebra, Machinery and Logic for Formal Program Semantics</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -8412,11 +8408,11 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -8430,11 +8426,11 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Front-end Web Development</t>
         </is>
       </c>
     </row>
@@ -8466,11 +8462,11 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Real-Time Scheduling Theory</t>
         </is>
       </c>
     </row>
@@ -8484,11 +8480,11 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>Introduction to Prototyping</t>
+          <t>Front-end Web Development</t>
         </is>
       </c>
     </row>
@@ -8502,11 +8498,11 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Advanced Programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -8520,11 +8516,11 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Architecture of Computing Devices</t>
         </is>
       </c>
     </row>
@@ -8538,11 +8534,11 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>Architecture of Computing Devices</t>
+          <t>Introduction to Mechanical Engineering</t>
         </is>
       </c>
     </row>
@@ -8556,11 +8552,11 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -8574,11 +8570,11 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Deep Learning for Search</t>
         </is>
       </c>
     </row>
@@ -8592,11 +8588,11 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>Architecture of Computing Devices</t>
+          <t>Introduction to 3D Modeling</t>
         </is>
       </c>
     </row>
@@ -8610,11 +8606,11 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Branding &amp; Marketing in IT industry</t>
         </is>
       </c>
     </row>
@@ -8628,11 +8624,11 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>Architecture of Computing Devices</t>
+          <t>Lambda-Calculus, Algebra, Machinery and Logic for Formal Program Semantics</t>
         </is>
       </c>
     </row>
@@ -8646,11 +8642,11 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
+          <t>MLOps Engineering</t>
         </is>
       </c>
     </row>
@@ -8664,11 +8660,11 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Introduction to Neuroscience</t>
         </is>
       </c>
     </row>
@@ -8682,11 +8678,11 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>MLOps Engineering</t>
+          <t>Introduction to Mechanical Engineering</t>
         </is>
       </c>
     </row>
@@ -8718,11 +8714,11 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>Deep Learning for Search</t>
+          <t>Branding &amp; Marketing in IT industry</t>
         </is>
       </c>
     </row>
@@ -8754,11 +8750,11 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Deep Learning for Search</t>
         </is>
       </c>
     </row>
@@ -8772,11 +8768,11 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
+          <t>Advanced Programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -8790,11 +8786,11 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Real-Time Scheduling Theory</t>
         </is>
       </c>
     </row>
@@ -8808,11 +8804,11 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Architecture of Computing Devices</t>
         </is>
       </c>
     </row>
@@ -8826,11 +8822,11 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Branding &amp; Marketing in IT industry</t>
         </is>
       </c>
     </row>
@@ -8844,11 +8840,11 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -8862,11 +8858,11 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
+          <t>Introduction to Mechanical Engineering</t>
         </is>
       </c>
     </row>
@@ -8880,11 +8876,11 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Deep Learning for Search</t>
         </is>
       </c>
     </row>
@@ -8898,11 +8894,11 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Introduction to Mechanical Engineering</t>
+          <t>Real-Time Scheduling Theory</t>
         </is>
       </c>
     </row>
@@ -8916,11 +8912,11 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -8934,11 +8930,11 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -8970,11 +8966,11 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Introduction to Neuroscience</t>
         </is>
       </c>
     </row>
@@ -8988,11 +8984,11 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Introduction to Electronic and Logic Circuits</t>
         </is>
       </c>
     </row>
@@ -9006,11 +9002,11 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>MLOps Engineering</t>
+          <t>Introduction to Neuroscience</t>
         </is>
       </c>
     </row>
@@ -9024,11 +9020,11 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Introduction to Prototyping</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -9042,11 +9038,11 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>Introduction to Neuroscience</t>
+          <t>Deep Learning for Search</t>
         </is>
       </c>
     </row>
@@ -9060,11 +9056,11 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
+          <t>Branding &amp; Marketing in IT industry</t>
         </is>
       </c>
     </row>
@@ -9078,11 +9074,11 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Introduction to Prototyping</t>
         </is>
       </c>
     </row>
@@ -9096,11 +9092,11 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Introduction to Prototyping</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -9114,11 +9110,11 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Cross-platform Mobile Development with Flutter</t>
         </is>
       </c>
     </row>
@@ -9132,11 +9128,11 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -9150,11 +9146,11 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Lambda-Calculus, Algebra, Machinery and Logic for Formal Program Semantics</t>
         </is>
       </c>
     </row>
@@ -9168,11 +9164,11 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
+          <t>Front-end Web Development</t>
         </is>
       </c>
     </row>
@@ -9186,11 +9182,11 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Real-Time Scheduling Theory</t>
         </is>
       </c>
     </row>
@@ -9204,11 +9200,11 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Architecture of Computing Devices</t>
         </is>
       </c>
     </row>
@@ -9222,11 +9218,11 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -9240,11 +9236,11 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>Introduction to Neuroscience</t>
+          <t>Deep Learning for Search</t>
         </is>
       </c>
     </row>
@@ -9258,11 +9254,11 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>Introduction to Neuroscience</t>
+          <t>Deep Learning for Search</t>
         </is>
       </c>
     </row>
@@ -9276,11 +9272,11 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>Introduction to Prototyping</t>
+          <t>Deep Learning for Search</t>
         </is>
       </c>
     </row>
@@ -9294,11 +9290,11 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>Architecture of Computing Devices</t>
+          <t>Front-end Web Development</t>
         </is>
       </c>
     </row>
@@ -9312,11 +9308,11 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
+          <t>Cross-platform Mobile Development with Flutter</t>
         </is>
       </c>
     </row>
@@ -9330,11 +9326,11 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -9348,11 +9344,11 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Cross-platform Mobile Development with Flutter</t>
         </is>
       </c>
     </row>
@@ -9366,11 +9362,11 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>Introduction to Electronic and Logic Circuits</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -9384,11 +9380,11 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -9402,11 +9398,11 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Introduction to Neuroscience</t>
         </is>
       </c>
     </row>
@@ -9420,11 +9416,11 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Architecture of Computing Devices</t>
         </is>
       </c>
     </row>
@@ -9438,11 +9434,11 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>Introduction to Prototyping</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -9456,11 +9452,11 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -9474,11 +9470,11 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Deep Learning for Search</t>
         </is>
       </c>
     </row>
@@ -9492,11 +9488,11 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>Introduction to Mechanical Engineering</t>
+          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
         </is>
       </c>
     </row>
@@ -9510,11 +9506,11 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Introduction to Prototyping</t>
         </is>
       </c>
     </row>
@@ -9528,11 +9524,11 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Lambda-Calculus, Algebra, Machinery and Logic for Formal Program Semantics</t>
         </is>
       </c>
     </row>
@@ -9546,13 +9542,9 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>1</v>
-      </c>
-      <c r="D504" t="inlineStr">
-        <is>
-          <t>Front-end Web Development</t>
-        </is>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D504" t="inlineStr"/>
     </row>
     <row r="505">
       <c r="A505" t="n">
@@ -9564,11 +9556,11 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>Introduction to 3D Modeling</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -9582,11 +9574,11 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>Introduction to Mechanical Engineering</t>
+          <t>Advanced Programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -9600,11 +9592,11 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Introduction to Electronic and Logic Circuits</t>
         </is>
       </c>
     </row>
@@ -9618,11 +9610,11 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -9636,11 +9628,11 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>Architecture of Computing Devices</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -9654,11 +9646,11 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Introduction to Mechanical Engineering</t>
         </is>
       </c>
     </row>
@@ -9672,11 +9664,11 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -9690,11 +9682,11 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>Architecture of Computing Devices</t>
+          <t>Cross-platform Mobile Development with Flutter</t>
         </is>
       </c>
     </row>
@@ -9708,11 +9700,11 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>MLOps Engineering</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -9726,11 +9718,11 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Introduction to 3D Modeling</t>
         </is>
       </c>
     </row>
@@ -9744,11 +9736,11 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>Introduction to Electronic and Logic Circuits</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -9762,11 +9754,11 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -9780,11 +9772,11 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>Lambda-Calculus, Algebra, Machinery and Logic for Formal Program Semantics</t>
+          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
         </is>
       </c>
     </row>
@@ -9798,11 +9790,11 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -9816,11 +9808,11 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>MLOps Engineering</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -9834,11 +9826,11 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>Introduction to Neuroscience</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -9852,11 +9844,11 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>Architecture of Computing Devices</t>
+          <t>Introduction to Mechanical Engineering</t>
         </is>
       </c>
     </row>
@@ -9870,11 +9862,11 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>Introduction to Neuroscience</t>
+          <t>Architecture of Computing Devices</t>
         </is>
       </c>
     </row>
@@ -9888,11 +9880,11 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>MLOps Engineering</t>
+          <t>Branding &amp; Marketing in IT industry</t>
         </is>
       </c>
     </row>
@@ -9906,11 +9898,11 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -9942,11 +9934,11 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Lambda-Calculus, Algebra, Machinery and Logic for Formal Program Semantics</t>
         </is>
       </c>
     </row>
@@ -9964,7 +9956,7 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>Multi-threaded programming in C/C++ (Russian only)</t>
+          <t>Cross-platform Mobile Development with Flutter</t>
         </is>
       </c>
     </row>
@@ -9978,11 +9970,11 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>Lambda-Calculus, Algebra, Machinery and Logic for Formal Program Semantics</t>
+          <t>Architecture of Computing Devices</t>
         </is>
       </c>
     </row>
@@ -9996,11 +9988,11 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>Introduction to Mechanical Engineering</t>
+          <t>Introduction to 3D Modeling</t>
         </is>
       </c>
     </row>
@@ -10014,11 +10006,11 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>Lambda-Calculus, Algebra, Machinery and Logic for Formal Program Semantics</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -10032,11 +10024,11 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -10050,11 +10042,11 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Introduction to 3D Modeling</t>
         </is>
       </c>
     </row>
@@ -10068,11 +10060,11 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>MLOps Engineering</t>
+          <t>Front-end Web Development</t>
         </is>
       </c>
     </row>
@@ -10086,11 +10078,11 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>Architecture of Computing Devices</t>
+          <t>Front-end Web Development</t>
         </is>
       </c>
     </row>
@@ -10104,11 +10096,11 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>Architecture of Computing Devices</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -10122,11 +10114,11 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
         </is>
       </c>
     </row>
@@ -10140,11 +10132,11 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>Deep Learning for Search</t>
+          <t>MLOps Engineering</t>
         </is>
       </c>
     </row>
@@ -10158,11 +10150,11 @@
         </is>
       </c>
       <c r="C538" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>Introduction to Prototyping</t>
+          <t>Real-Time Scheduling Theory</t>
         </is>
       </c>
     </row>
@@ -10176,11 +10168,11 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Real-Time Scheduling Theory</t>
         </is>
       </c>
     </row>
@@ -10194,7 +10186,7 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -10230,11 +10222,11 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Architecture of Computing Devices</t>
         </is>
       </c>
     </row>
@@ -10248,11 +10240,11 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Real-Time Scheduling Theory</t>
         </is>
       </c>
     </row>
@@ -10266,11 +10258,11 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -10284,11 +10276,11 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -10302,11 +10294,11 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>Front-end Web Development</t>
+          <t>Introduction to Prototyping</t>
         </is>
       </c>
     </row>
@@ -10320,11 +10312,11 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>Architecture of Computing Devices</t>
+          <t>Introduction to Electronic and Logic Circuits</t>
         </is>
       </c>
     </row>
@@ -10338,11 +10330,11 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>Architecture of Computing Devices</t>
+          <t>Introduction to Neuroscience</t>
         </is>
       </c>
     </row>
@@ -10356,11 +10348,11 @@
         </is>
       </c>
       <c r="C549" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
+          <t>Introduction to Prototyping</t>
         </is>
       </c>
     </row>
@@ -10374,11 +10366,11 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>Architecture of Computing Devices</t>
+          <t>MLOps Engineering</t>
         </is>
       </c>
     </row>
@@ -10392,11 +10384,11 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>Introduction to Electronic and Logic Circuits</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -10410,11 +10402,11 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>Architecture of Computing Devices</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -10428,11 +10420,11 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>Introduction to Mechanical Engineering</t>
+          <t>Lambda-Calculus, Algebra, Machinery and Logic for Formal Program Semantics</t>
         </is>
       </c>
     </row>
@@ -10446,11 +10438,11 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>Introduction to Neuroscience</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -10464,11 +10456,11 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>Deep Learning for Search</t>
+          <t>Introduction to 3D Modeling</t>
         </is>
       </c>
     </row>
@@ -10482,11 +10474,11 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>Introduction to Neuroscience</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -10500,11 +10492,11 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
+          <t>Lambda-Calculus, Algebra, Machinery and Logic for Formal Program Semantics</t>
         </is>
       </c>
     </row>
@@ -10518,11 +10510,11 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -10536,11 +10528,11 @@
         </is>
       </c>
       <c r="C559" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
+          <t>Branding &amp; Marketing in IT industry</t>
         </is>
       </c>
     </row>
@@ -10554,11 +10546,11 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>Introduction to Electronic and Logic Circuits</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -10572,11 +10564,11 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>Lambda-Calculus, Algebra, Machinery and Logic for Formal Program Semantics</t>
+          <t>Real-Time Scheduling Theory</t>
         </is>
       </c>
     </row>
@@ -10590,11 +10582,11 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>Architecture of Computing Devices</t>
+          <t>Real-Time Scheduling Theory</t>
         </is>
       </c>
     </row>
@@ -10608,11 +10600,11 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
+          <t>Lambda-Calculus, Algebra, Machinery and Logic for Formal Program Semantics</t>
         </is>
       </c>
     </row>
@@ -10626,11 +10618,11 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>Architecture of Computing Devices</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -10644,11 +10636,11 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
+          <t>Real-Time Scheduling Theory</t>
         </is>
       </c>
     </row>
@@ -10680,11 +10672,11 @@
         </is>
       </c>
       <c r="C567" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
+          <t>Introduction to 3D Modeling</t>
         </is>
       </c>
     </row>
@@ -10698,11 +10690,11 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>Introduction to Robotics Operating System: Basics, Motion, and Vision</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -10716,11 +10708,11 @@
         </is>
       </c>
       <c r="C569" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>Architecture of Computing Devices</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -10752,11 +10744,11 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>Lambda-Calculus, Algebra, Machinery and Logic for Formal Program Semantics</t>
+          <t>Multi-threaded programming in C/C++ (Russian only)</t>
         </is>
       </c>
     </row>
@@ -10770,11 +10762,11 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>Introduction to DevOps (DSAI Only)</t>
+          <t>Front-end Web Development</t>
         </is>
       </c>
     </row>
